--- a/data/trans_bre/P0902-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P0902-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>14,11</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,29</t>
+          <t>3,41</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>106,28%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>40,1%</t>
+          <t>43,79%</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,81; 21,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 7,68</t>
+          <t>-0,97; 7,86</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>47,2; 204,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-10,99; 133,21</t>
+          <t>-9,81; 140,86</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,69</t>
+          <t>7,32</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>37,41%</t>
+          <t>42,86%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,7; 11,08</t>
+          <t>2,39; 11,61</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,91; 73,24</t>
+          <t>12,15; 81,96</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,05</t>
+          <t>4,3</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>29,63%</t>
+          <t>32,21%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 8,75</t>
+          <t>-0,6; 8,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 78,46</t>
+          <t>-3,51; 82,37</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15,81</t>
+          <t>17,01</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,87</t>
+          <t>2,17</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>110,48%</t>
+          <t>112,48%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>32,0%</t>
+          <t>12,08%</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,16; 20,4</t>
+          <t>10,83; 22,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 12,49</t>
+          <t>-7,67; 9,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>66,41; 167,62</t>
+          <t>58,96; 175,92</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 88,55</t>
+          <t>-35,39; 64,87</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,17</t>
+          <t>5,21</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>75,24%</t>
+          <t>75,55%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,88; 9,14</t>
+          <t>0,93; 9,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,27; 200,54</t>
+          <t>5,72; 200,15</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>4,15</t>
+          <t>4,4</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>36,7%</t>
+          <t>39,66%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 8,6</t>
+          <t>-0,01; 8,84</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 94,03</t>
+          <t>-1,83; 98,05</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,81</t>
+          <t>3,87</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>44,99%</t>
+          <t>31,12%</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 10,51</t>
+          <t>-5,93; 10,46</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-13,78; 90,16</t>
+          <t>-41,79; 88,75</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>9,45</t>
+          <t>11,67</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>87,78%</t>
+          <t>137,39%</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>5,8; 13,03</t>
+          <t>7,3; 18,08</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>44,86; 148,27</t>
+          <t>57,93; 453,25</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>6,4</t>
+          <t>6,28</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>49,74%</t>
+          <t>53,02%</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,26; 8,14</t>
+          <t>3,07; 8,84</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>31,95; 67,53</t>
+          <t>26,97; 88,74</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P0902-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P0902-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 9,67</t>
+          <t>-0,39; 10,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,81; 21,35</t>
+          <t>7,28; 20,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,24; 20,43</t>
+          <t>7,8; 21,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 7,86</t>
+          <t>-0,53; 7,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,17; 149,0</t>
+          <t>-5,17; 160,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>47,2; 204,07</t>
+          <t>42,82; 191,82</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>51,2; 260,82</t>
+          <t>55,58; 266,34</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-9,81; 140,86</t>
+          <t>-5,89; 134,32</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,99; 10,9</t>
+          <t>2,63; 11,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,61; 12,58</t>
+          <t>3,01; 12,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,73; 11,4</t>
+          <t>2,4; 11,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,39; 11,61</t>
+          <t>2,44; 11,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>26,11; 149,52</t>
+          <t>20,33; 152,7</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,34; 148,14</t>
+          <t>21,26; 142,37</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>25,36; 172,94</t>
+          <t>22,03; 159,65</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,15; 81,96</t>
+          <t>12,11; 82,01</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,89; 11,74</t>
+          <t>3,21; 11,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 11,02</t>
+          <t>-0,14; 11,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 8,18</t>
+          <t>-1,07; 8,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 8,94</t>
+          <t>-0,7; 8,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>45,37; 394,73</t>
+          <t>45,06; 344,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 122,91</t>
+          <t>-1,78; 124,84</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-11,16; 152,94</t>
+          <t>-13,17; 146,81</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 82,37</t>
+          <t>-5,25; 81,72</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,87; 15,23</t>
+          <t>6,25; 15,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,83; 22,82</t>
+          <t>11,03; 23,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,09; 20,02</t>
+          <t>7,41; 20,11</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,67; 9,86</t>
+          <t>-7,39; 9,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>118,78; 634,54</t>
+          <t>101,51; 586,73</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>58,96; 175,92</t>
+          <t>57,63; 188,26</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>36,94; 138,26</t>
+          <t>37,72; 147,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-35,39; 64,87</t>
+          <t>-34,12; 61,85</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 9,77</t>
+          <t>-1,29; 9,96</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,87; 22,74</t>
+          <t>7,11; 22,3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 11,55</t>
+          <t>-0,01; 11,84</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,93; 9,23</t>
+          <t>0,87; 9,2</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-22,48; 193,62</t>
+          <t>-17,42; 190,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>48,0; 266,67</t>
+          <t>43,62; 269,5</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 218,17</t>
+          <t>-7,05; 209,9</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,72; 200,15</t>
+          <t>7,32; 207,84</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,31; 13,66</t>
+          <t>2,65; 13,93</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 9,76</t>
+          <t>-3,5; 9,64</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,67; 13,9</t>
+          <t>-0,23; 13,65</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 8,84</t>
+          <t>0,24; 8,68</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>30,23; 231,1</t>
+          <t>21,42; 225,6</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-14,56; 99,12</t>
+          <t>-21,61; 98,54</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,53; 127,57</t>
+          <t>-4,22; 120,07</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 98,05</t>
+          <t>1,01; 99,97</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,35; 7,56</t>
+          <t>0,53; 7,43</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,32; 11,3</t>
+          <t>4,73; 11,5</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,41; 14,24</t>
+          <t>6,38; 14,58</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 10,46</t>
+          <t>-5,28; 10,23</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,41; 100,52</t>
+          <t>4,83; 104,33</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>52,14; 201,43</t>
+          <t>50,1; 190,38</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>62,1; 212,11</t>
+          <t>57,66; 208,94</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-41,79; 88,75</t>
+          <t>-34,53; 87,54</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,69; 9,67</t>
+          <t>3,04; 9,42</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,27; 10,52</t>
+          <t>2,92; 10,19</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,75; 10,03</t>
+          <t>3,84; 10,51</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7,3; 18,08</t>
+          <t>7,4; 18,12</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>21,92; 111,8</t>
+          <t>24,85; 109,47</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>26,16; 120,24</t>
+          <t>21,96; 111,9</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>51,62; 212,94</t>
+          <t>49,13; 216,49</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>57,93; 453,25</t>
+          <t>60,64; 431,75</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>4,94; 8,12</t>
+          <t>4,88; 7,88</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>7,22; 10,66</t>
+          <t>7,25; 10,76</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>6,71; 10,28</t>
+          <t>6,81; 10,18</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>3,07; 8,84</t>
+          <t>2,89; 9,04</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>55,91; 108,45</t>
+          <t>55,09; 104,62</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>61,6; 105,61</t>
+          <t>62,05; 107,88</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>67,2; 119,04</t>
+          <t>68,18; 119,32</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>26,97; 88,74</t>
+          <t>26,66; 91,91</t>
         </is>
       </c>
     </row>
